--- a/students/Victor3272/7.1/Книга1.xlsx
+++ b/students/Victor3272/7.1/Книга1.xlsx
@@ -953,10 +953,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B98"/>
+  <dimension ref="A1:C98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72:B98"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -965,7 +965,7 @@
     <col min="2" max="2" width="71.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -973,88 +973,118 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="52.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="52.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="65.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="65.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="90.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>22</v>
       </c>
@@ -1062,119 +1092,161 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>30</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>34</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>37</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>39</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>40</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>41</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>42</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>43</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>45</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>46</v>
       </c>
@@ -1182,23 +1254,29 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>48</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>49</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>51</v>
       </c>
@@ -1206,7 +1284,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>52</v>
       </c>
